--- a/SRC_Center_Mento_Upload/최재원.xlsx
+++ b/SRC_Center_Mento_Upload/최재원.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BREAD\Desktop\Python-Automation\SRC_Center_UploadMento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2022-2학기\멘토선발\멘토 최종 선발\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC4E105-A2C8-45D5-B6EB-13774E188467}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="216">
   <si>
     <t>No.</t>
   </si>
@@ -68,16 +67,641 @@
     <t>글로벌자유전공학과</t>
   </si>
   <si>
+    <t>SCH미디어랩스</t>
+  </si>
+  <si>
+    <t>한국문화콘텐츠학과</t>
+  </si>
+  <si>
+    <t>영미학과</t>
+  </si>
+  <si>
+    <t>중국학과</t>
+  </si>
+  <si>
+    <t>미디어커뮤니케이션학과</t>
+  </si>
+  <si>
+    <t>건축학과(5)</t>
+  </si>
+  <si>
+    <t>SCH미디어랩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털애니메이션학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅데이터공학과</t>
+  </si>
+  <si>
+    <t>사물인터넷학과</t>
+  </si>
+  <si>
+    <t>스마트자동차학과</t>
+  </si>
+  <si>
+    <t>에너지시스템학과</t>
+  </si>
+  <si>
+    <t>공연영상학과</t>
+  </si>
+  <si>
+    <t>인문사회과학대학</t>
+  </si>
+  <si>
+    <t>유아교육과</t>
+  </si>
+  <si>
+    <t>특수교육과</t>
+  </si>
+  <si>
+    <t>법학과</t>
+  </si>
+  <si>
+    <t>행정학과</t>
+  </si>
+  <si>
+    <t>경찰행정학과</t>
+  </si>
+  <si>
+    <t>사회복지학과</t>
+  </si>
+  <si>
+    <t>청소년교육·상담학과</t>
+  </si>
+  <si>
+    <t>글로벌경영대학</t>
+  </si>
+  <si>
+    <t>경영학과</t>
+  </si>
+  <si>
+    <t>국제통상학과</t>
+  </si>
+  <si>
+    <t>관광경영학과</t>
+  </si>
+  <si>
+    <t>경제금융학과</t>
+  </si>
+  <si>
+    <t>IT금융경영학과</t>
+  </si>
+  <si>
+    <t>글로벌문화산업학과</t>
+  </si>
+  <si>
+    <t>회계학과</t>
+  </si>
+  <si>
+    <t>자연과학대학</t>
+  </si>
+  <si>
+    <t>화학과</t>
+  </si>
+  <si>
+    <t>식품영양학과</t>
+  </si>
+  <si>
+    <t>환경보건학과</t>
+  </si>
+  <si>
+    <t>생명과학과</t>
+  </si>
+  <si>
+    <t>스포츠과학과</t>
+  </si>
+  <si>
+    <t>사회체육학과</t>
+  </si>
+  <si>
+    <t>스포츠의학과</t>
+  </si>
+  <si>
+    <t>SW융합대학</t>
+  </si>
+  <si>
+    <t>컴퓨터소프트웨어공학과</t>
+  </si>
+  <si>
+    <t>정보보호학과</t>
+  </si>
+  <si>
+    <t>공과대학</t>
+  </si>
+  <si>
+    <t>컴퓨터공학과</t>
+  </si>
+  <si>
+    <t>정보통신공학과</t>
+  </si>
+  <si>
+    <t>전자공학과</t>
+  </si>
+  <si>
+    <t>전기공학과</t>
+  </si>
+  <si>
+    <t>전자정보공학과</t>
+  </si>
+  <si>
+    <t>나노화학공학과</t>
+  </si>
+  <si>
+    <t>에너지환경공학과</t>
+  </si>
+  <si>
+    <t>디스플레이신소재공학과</t>
+  </si>
+  <si>
+    <t>기계공학과</t>
+  </si>
+  <si>
+    <t>의료과학대학</t>
+  </si>
+  <si>
+    <t>보건행정경영학과</t>
+  </si>
+  <si>
+    <t>의료생명공학과</t>
+  </si>
+  <si>
+    <t>의료IT공학과</t>
+  </si>
+  <si>
+    <t>임상병리학과</t>
+  </si>
+  <si>
+    <t>작업치료학과</t>
+  </si>
+  <si>
+    <t>의약공학과</t>
+  </si>
+  <si>
+    <t>의용메카트로닉스공학과</t>
+  </si>
+  <si>
+    <t>의과대학</t>
+  </si>
+  <si>
+    <t>의예과</t>
+  </si>
+  <si>
+    <t>간호학과</t>
+  </si>
+  <si>
     <t>웬티끼에우오완</t>
   </si>
   <si>
+    <t>범강</t>
+  </si>
+  <si>
+    <t>박지은</t>
+  </si>
+  <si>
+    <t>이예나</t>
+  </si>
+  <si>
+    <t>손채은</t>
+  </si>
+  <si>
+    <t>배지혜</t>
+  </si>
+  <si>
+    <t>김하늘</t>
+  </si>
+  <si>
+    <t>김은빈</t>
+  </si>
+  <si>
+    <t>박기련</t>
+  </si>
+  <si>
+    <t>김지혜</t>
+  </si>
+  <si>
+    <t>장서연</t>
+  </si>
+  <si>
+    <t>손혜인</t>
+  </si>
+  <si>
+    <t>이슬비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최은정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현옥</t>
+  </si>
+  <si>
+    <t>박지혜</t>
+  </si>
+  <si>
+    <t>김민지</t>
+  </si>
+  <si>
+    <t>김태현</t>
+  </si>
+  <si>
+    <t>김연우</t>
+  </si>
+  <si>
+    <t>류수민</t>
+  </si>
+  <si>
+    <t>이현지</t>
+  </si>
+  <si>
+    <t>신성은</t>
+  </si>
+  <si>
+    <t>박성훈</t>
+  </si>
+  <si>
+    <t>신소연</t>
+  </si>
+  <si>
+    <t>이윤진</t>
+  </si>
+  <si>
+    <t>강은지</t>
+  </si>
+  <si>
+    <t>김나현</t>
+  </si>
+  <si>
+    <t>정지우</t>
+  </si>
+  <si>
+    <t>서유진</t>
+  </si>
+  <si>
+    <t>정유진</t>
+  </si>
+  <si>
+    <t>박서희</t>
+  </si>
+  <si>
+    <t>김진희</t>
+  </si>
+  <si>
+    <t>서주원</t>
+  </si>
+  <si>
+    <t>박이수</t>
+  </si>
+  <si>
+    <t>박형도</t>
+  </si>
+  <si>
+    <t>박다인</t>
+  </si>
+  <si>
+    <t>김수아</t>
+  </si>
+  <si>
+    <t>김보미</t>
+  </si>
+  <si>
+    <t>류지민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소지윤</t>
+  </si>
+  <si>
+    <t>박교은</t>
+  </si>
+  <si>
+    <t>정근모</t>
+  </si>
+  <si>
+    <t>이은채</t>
+  </si>
+  <si>
+    <t>김신형</t>
+  </si>
+  <si>
+    <t>최윤하</t>
+  </si>
+  <si>
+    <t>안채린</t>
+  </si>
+  <si>
+    <t>유승석</t>
+  </si>
+  <si>
+    <t>박금주</t>
+  </si>
+  <si>
+    <t>길관우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤동호</t>
+  </si>
+  <si>
+    <t>안준현</t>
+  </si>
+  <si>
+    <t>한상우</t>
+  </si>
+  <si>
+    <t>이서영</t>
+  </si>
+  <si>
+    <t>박지원</t>
+  </si>
+  <si>
+    <t>조준현</t>
+  </si>
+  <si>
+    <t>조범근</t>
+  </si>
+  <si>
+    <t>임재현</t>
+  </si>
+  <si>
+    <t>장찬희</t>
+  </si>
+  <si>
+    <t>김세민</t>
+  </si>
+  <si>
+    <t>김송희</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>이현아</t>
+  </si>
+  <si>
+    <t>배보성</t>
+  </si>
+  <si>
+    <t>박정아</t>
+  </si>
+  <si>
+    <t>장시현</t>
+  </si>
+  <si>
+    <t>김다빈</t>
+  </si>
+  <si>
+    <t>박윤정</t>
+  </si>
+  <si>
+    <t>김차니</t>
+  </si>
+  <si>
+    <t>송보람</t>
+  </si>
+  <si>
+    <t>방지우</t>
+  </si>
+  <si>
+    <t>조승연</t>
+  </si>
+  <si>
+    <t>임하늘</t>
+  </si>
+  <si>
+    <t>김대건</t>
+  </si>
+  <si>
+    <t>박유란</t>
+  </si>
+  <si>
+    <t>윤현지</t>
+  </si>
+  <si>
+    <t>서재원</t>
+  </si>
+  <si>
+    <t>한태희</t>
+  </si>
+  <si>
+    <t>조경욱</t>
+  </si>
+  <si>
+    <t>최영경</t>
+  </si>
+  <si>
+    <t>강민서</t>
+  </si>
+  <si>
+    <t>박세진</t>
+  </si>
+  <si>
+    <t>성지현</t>
+  </si>
+  <si>
+    <t>종윤지</t>
+  </si>
+  <si>
+    <t>김가연</t>
+  </si>
+  <si>
+    <t>김현수</t>
+  </si>
+  <si>
+    <t>이수연</t>
+  </si>
+  <si>
+    <t>나현우</t>
+  </si>
+  <si>
+    <t>이동규</t>
+  </si>
+  <si>
+    <t>신예호</t>
+  </si>
+  <si>
+    <t>김현석</t>
+  </si>
+  <si>
+    <t>송민욱</t>
+  </si>
+  <si>
+    <t>김민성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김서영</t>
+  </si>
+  <si>
+    <t>정호영</t>
+  </si>
+  <si>
+    <t>남주현</t>
+  </si>
+  <si>
+    <t>박진영</t>
+  </si>
+  <si>
+    <t>조주희</t>
+  </si>
+  <si>
+    <t>김수현</t>
+  </si>
+  <si>
+    <t>권도영</t>
+  </si>
+  <si>
+    <t>하태훈</t>
+  </si>
+  <si>
+    <t>신현수</t>
+  </si>
+  <si>
+    <t>용지현</t>
+  </si>
+  <si>
+    <t>박대성</t>
+  </si>
+  <si>
+    <t>서은빈</t>
+  </si>
+  <si>
+    <t>국정원</t>
+  </si>
+  <si>
+    <t>김지은</t>
+  </si>
+  <si>
+    <t>계민지</t>
+  </si>
+  <si>
+    <t>오유진</t>
+  </si>
+  <si>
+    <t>박수연</t>
+  </si>
+  <si>
+    <t>장아영</t>
+  </si>
+  <si>
+    <t>정아름</t>
+  </si>
+  <si>
+    <t>김상아</t>
+  </si>
+  <si>
+    <t>박수민</t>
+  </si>
+  <si>
+    <t>정서린</t>
+  </si>
+  <si>
+    <t>이태무</t>
+  </si>
+  <si>
+    <t>문수민</t>
+  </si>
+  <si>
+    <t>윤은빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안효빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안현석</t>
+  </si>
+  <si>
+    <t>박시은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송은영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송수연</t>
+  </si>
+  <si>
+    <t>이서진</t>
+  </si>
+  <si>
+    <t>김수안</t>
+  </si>
+  <si>
     <t>여자</t>
   </si>
   <si>
+    <t>남자</t>
+  </si>
+  <si>
+    <t>여자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>재학</t>
   </si>
   <si>
+    <t>재학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복학예정자</t>
+  </si>
+  <si>
+    <t>재학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>신규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -88,7 +712,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -163,7 +787,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -187,6 +811,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -201,11 +838,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -220,6 +860,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -229,7 +878,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,14 +1160,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="G2" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -535,74 +1184,3728 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" s="12" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>20211110</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>20211223</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>20181228</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>20211245</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>20211278</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8">
+        <v>20201271</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>20211290</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>20211287</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>20211346</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>20211363</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E13" s="8">
+        <v>20211333</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>20211424</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8">
+        <v>20211405</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>20211445</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>20211484</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8">
+        <v>20211651</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>20201499</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>20211505</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>20211547</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" customHeight="1">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>20211576</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>20211593</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="8">
+        <v>20211578</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>20201648</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" customHeight="1">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>20211629</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" customHeight="1">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
+        <v>20202039</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" customHeight="1">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="8">
+        <v>20212019</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" customHeight="1">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
+        <v>20212049</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" customHeight="1">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="8">
+        <v>20202063</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18" customHeight="1">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>20212130</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="8">
+        <v>20212136</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18" customHeight="1">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8">
+        <v>20202174</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18" customHeight="1">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="8">
+        <v>20202193</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" customHeight="1">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
+        <v>20212211</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" customHeight="1">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" s="8">
+        <v>20182212</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8">
+        <v>20192239</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18" customHeight="1">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="8">
+        <v>20192248</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8">
+        <v>20212081</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18" customHeight="1">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+      <c r="E40" s="8">
+        <v>20202092</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18" customHeight="1">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8">
+        <v>20212519</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18" customHeight="1">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="E42" s="8">
+        <v>20202529</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18" customHeight="1">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="8">
+        <v>20202598</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18" customHeight="1">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="8">
+        <v>20202610</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18" customHeight="1">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3</v>
+      </c>
+      <c r="E45" s="8">
+        <v>20182616</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18" customHeight="1">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E46" s="8">
+        <v>20212579</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18" customHeight="1">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8">
+        <v>20202680</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18" customHeight="1">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48" s="8">
+        <v>20202650</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18" customHeight="1">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="2">
+        <v>3</v>
+      </c>
+      <c r="E49" s="8">
+        <v>20212656</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18" customHeight="1">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="8">
+        <v>20192741</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="18" customHeight="1">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2</v>
+      </c>
+      <c r="E51" s="8">
+        <v>20202725</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="18" customHeight="1">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3</v>
+      </c>
+      <c r="E52" s="8">
+        <v>20212714</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18" customHeight="1">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="8">
+        <v>20182750</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="18" customHeight="1">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+      <c r="E54" s="8">
+        <v>20212762</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="18" customHeight="1">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3</v>
+      </c>
+      <c r="E55" s="8">
+        <v>20182752</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="18" customHeight="1">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8">
+        <v>20202809</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="18" customHeight="1">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2</v>
+      </c>
+      <c r="E57" s="8">
+        <v>20202817</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="18" customHeight="1">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="8">
+        <v>20182848</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="18" customHeight="1">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
+      <c r="E59" s="8">
+        <v>20192860</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="18" customHeight="1">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="8">
+        <v>20213017</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="18" customHeight="1">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
+      <c r="E61" s="8">
+        <v>20213032</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="18" customHeight="1">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="8">
+        <v>20213060</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="18" customHeight="1">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2</v>
+      </c>
+      <c r="E63" s="8">
+        <v>20213059</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="18" customHeight="1">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8">
+        <v>20213095</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="18" customHeight="1">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+      <c r="E65" s="8">
+        <v>20213139</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="18" customHeight="1">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3</v>
+      </c>
+      <c r="E66" s="8">
+        <v>20193103</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="18" customHeight="1">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="8">
+        <v>20213192</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="18" customHeight="1">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+      <c r="E68" s="8">
+        <v>20213198</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="18" customHeight="1">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3</v>
+      </c>
+      <c r="E69" s="8">
+        <v>20213199</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="18" customHeight="1">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="2">
+        <v>4</v>
+      </c>
+      <c r="E70" s="8">
+        <v>20213207</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="18" customHeight="1">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="8">
+        <v>20203260</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="18" customHeight="1">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2</v>
+      </c>
+      <c r="E72" s="8">
+        <v>20213242</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="18" customHeight="1">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="8">
+        <v>20213280</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="18" customHeight="1">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="2">
+        <v>2</v>
+      </c>
+      <c r="E74" s="8">
+        <v>20213268</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="18" customHeight="1">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="8">
+        <v>20213307</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18" customHeight="1">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2</v>
+      </c>
+      <c r="E76" s="8">
+        <v>20213311</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="18" customHeight="1">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" s="8">
+        <v>20214023</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="18" customHeight="1">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="2">
+        <v>2</v>
+      </c>
+      <c r="E78" s="8">
+        <v>20214030</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="18" customHeight="1">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3</v>
+      </c>
+      <c r="E79" s="8">
+        <v>20174014</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="18" customHeight="1">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
+      <c r="E80" s="8">
+        <v>20214583</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="18" customHeight="1">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2</v>
+      </c>
+      <c r="E81" s="8">
+        <v>20214557</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="18" customHeight="1">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" s="2">
+        <v>3</v>
+      </c>
+      <c r="E82" s="8">
+        <v>20214568</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="18" customHeight="1">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+      <c r="E83" s="8">
+        <v>20204065</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="18" customHeight="1">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2</v>
+      </c>
+      <c r="E84" s="8">
+        <v>20204067</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="18" customHeight="1">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" s="2">
+        <v>3</v>
+      </c>
+      <c r="E85" s="8">
+        <v>20204610</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="18" customHeight="1">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
+      <c r="E86" s="8">
+        <v>20204136</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="18" customHeight="1">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2</v>
+      </c>
+      <c r="E87" s="8">
+        <v>20204131</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="18" customHeight="1">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="2">
+        <v>3</v>
+      </c>
+      <c r="E88" s="8">
+        <v>20204622</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="18" customHeight="1">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
+      <c r="E89" s="8">
+        <v>20204221</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="18" customHeight="1">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="2">
+        <v>2</v>
+      </c>
+      <c r="E90" s="8">
+        <v>20184210</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="18" customHeight="1">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="2">
+        <v>3</v>
+      </c>
+      <c r="E91" s="8">
+        <v>20184206</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="18" customHeight="1">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+      <c r="E92" s="8">
+        <v>20194240</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="18" customHeight="1">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" s="2">
+        <v>2</v>
+      </c>
+      <c r="E93" s="8">
+        <v>20184300</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="18" customHeight="1">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" s="2">
+        <v>3</v>
+      </c>
+      <c r="E94" s="8">
+        <v>20184247</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="18" customHeight="1">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="2">
+        <v>4</v>
+      </c>
+      <c r="E95" s="8">
+        <v>20194267</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="18" customHeight="1">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+      <c r="E96" s="8">
+        <v>20184342</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="18" customHeight="1">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="2">
+        <v>2</v>
+      </c>
+      <c r="E97" s="8">
+        <v>20204324</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="18" customHeight="1">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="2">
+        <v>3</v>
+      </c>
+      <c r="E98" s="8">
+        <v>20204347</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="18" customHeight="1">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
+      <c r="E99" s="8">
+        <v>20204381</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="18" customHeight="1">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" s="2">
+        <v>2</v>
+      </c>
+      <c r="E100" s="8">
+        <v>20204384</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="18" customHeight="1">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+      <c r="E101" s="8">
+        <v>20214422</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="18" customHeight="1">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" s="2">
+        <v>2</v>
+      </c>
+      <c r="E102" s="8">
+        <v>20214419</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="18" customHeight="1">
+      <c r="A103" s="3">
+        <v>101</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+      <c r="E103" s="8">
+        <v>20204463</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="18" customHeight="1">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="2">
+        <v>2</v>
+      </c>
+      <c r="E104" s="8">
+        <v>20214470</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="18" customHeight="1">
+      <c r="A105" s="3">
+        <v>103</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="2">
+        <v>3</v>
+      </c>
+      <c r="E105" s="8">
+        <v>20214471</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="18" customHeight="1">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
+      <c r="E106" s="8">
+        <v>20214488</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="18" customHeight="1">
+      <c r="A107" s="3">
+        <v>105</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" s="2">
+        <v>2</v>
+      </c>
+      <c r="E107" s="8">
+        <v>20184535</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="18" customHeight="1">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+      <c r="E108" s="8">
+        <v>20205034</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="18" customHeight="1">
+      <c r="A109" s="3">
+        <v>107</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D109" s="2">
+        <v>2</v>
+      </c>
+      <c r="E109" s="8">
+        <v>20215003</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="18" customHeight="1">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1</v>
+      </c>
+      <c r="E110" s="8">
+        <v>20205059</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="18" customHeight="1">
+      <c r="A111" s="3">
+        <v>109</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" s="2">
+        <v>2</v>
+      </c>
+      <c r="E111" s="8">
+        <v>20205463</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="18" customHeight="1">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1</v>
+      </c>
+      <c r="E112" s="8">
+        <v>20215093</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="18" customHeight="1">
+      <c r="A113" s="3">
+        <v>111</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D113" s="2">
+        <v>2</v>
+      </c>
+      <c r="E113" s="8">
+        <v>20215134</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="18" customHeight="1">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
+      <c r="E114" s="8">
+        <v>20215140</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="18" customHeight="1">
+      <c r="A115" s="3">
+        <v>113</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D115" s="2">
+        <v>2</v>
+      </c>
+      <c r="E115" s="8">
+        <v>20215144</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="18" customHeight="1">
+      <c r="A116" s="3">
+        <v>114</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1</v>
+      </c>
+      <c r="E116" s="8">
+        <v>20215191</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="18" customHeight="1">
+      <c r="A117" s="3">
+        <v>115</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D117" s="2">
+        <v>2</v>
+      </c>
+      <c r="E117" s="8">
+        <v>20215198</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="18" customHeight="1">
+      <c r="A118" s="3">
+        <v>116</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
+      <c r="E118" s="8">
+        <v>20215258</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="18" customHeight="1">
+      <c r="A119" s="3">
+        <v>117</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D119" s="2">
+        <v>2</v>
+      </c>
+      <c r="E119" s="8">
+        <v>20215225</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="18" customHeight="1">
+      <c r="A120" s="3">
+        <v>118</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1</v>
+      </c>
+      <c r="E120" s="8">
+        <v>20185281</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="18" customHeight="1">
+      <c r="A121" s="3">
+        <v>119</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" s="2">
+        <v>2</v>
+      </c>
+      <c r="E121" s="8">
+        <v>20205290</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="18" customHeight="1">
+      <c r="A122" s="3">
+        <v>120</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1</v>
+      </c>
+      <c r="E122" s="8">
+        <v>20215375</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="18" customHeight="1">
+      <c r="A123" s="3">
+        <v>121</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" s="2">
+        <v>2</v>
+      </c>
+      <c r="E123" s="8">
+        <v>20215321</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="18" customHeight="1">
+      <c r="A124" s="3">
+        <v>122</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D124" s="2">
+        <v>3</v>
+      </c>
+      <c r="E124" s="8">
+        <v>20215388</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="18" customHeight="1">
+      <c r="A125" s="3">
+        <v>123</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D125" s="2">
+        <v>4</v>
+      </c>
+      <c r="E125" s="8">
+        <v>20215385</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="18" customHeight="1">
+      <c r="A126" s="3">
+        <v>124</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D126" s="2">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>20211110</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>14</v>
+      <c r="E126" s="8">
+        <v>20215303</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="18" customHeight="1">
+      <c r="A127" s="3">
+        <v>125</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D127" s="2">
+        <v>1</v>
+      </c>
+      <c r="E127" s="8">
+        <v>20215415</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="18" customHeight="1">
+      <c r="A128" s="3">
+        <v>126</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D128" s="2">
+        <v>2</v>
+      </c>
+      <c r="E128" s="8">
+        <v>20215422</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="18" customHeight="1">
+      <c r="A129" s="3">
+        <v>127</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D129" s="2">
+        <v>3</v>
+      </c>
+      <c r="E129" s="8">
+        <v>20215423</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
